--- a/adresso_1024_regression_True.xlsx
+++ b/adresso_1024_regression_True.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>speaker</t>
+  </si>
+  <si>
+    <t>lin</t>
   </si>
   <si>
     <t>svr</t>
@@ -590,13 +593,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,985 +609,1198 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>26.57536267093526</v>
+        <v>0.3375046779533498</v>
       </c>
       <c r="D2">
-        <v>25.66666666666666</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.5514060201263612</v>
+      </c>
+      <c r="E2">
+        <v>0.4138097841888559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>23.69326930645963</v>
+        <v>1.26099038697342</v>
       </c>
       <c r="D3">
-        <v>17.92857142857143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.1347318597081056</v>
+      </c>
+      <c r="E3">
+        <v>-0.6900412505175212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>23.45448388285411</v>
+        <v>0.8426184863497229</v>
       </c>
       <c r="D4">
-        <v>28.07692307692308</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1029985127179069</v>
+      </c>
+      <c r="E4">
+        <v>0.7576365206796469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>15.74476437384362</v>
+        <v>0.1986180085350449</v>
       </c>
       <c r="D5">
-        <v>17.92857142857143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-1.017152359647523</v>
+      </c>
+      <c r="E5">
+        <v>-0.6900412505175212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>23.46207965114387</v>
+        <v>-0.364880196143665</v>
       </c>
       <c r="D6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1014690523761019</v>
+      </c>
+      <c r="E6">
+        <v>-1.107806411344858</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>24.7672179659759</v>
+        <v>0.2256423090406473</v>
       </c>
       <c r="D7">
-        <v>29.04347826086957</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.2931980140840995</v>
+      </c>
+      <c r="E7">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>22.85971374790328</v>
+        <v>0.04907052386542095</v>
       </c>
       <c r="D8">
-        <v>29.04347826086957</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0169114350582862</v>
+      </c>
+      <c r="E8">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>20.64660128752543</v>
+        <v>-0.5015197250690897</v>
       </c>
       <c r="D9">
-        <v>25.66666666666666</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.3066243240012231</v>
+      </c>
+      <c r="E9">
+        <v>0.4138097841888559</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>16.20570494649615</v>
+        <v>-0.3622810165757339</v>
       </c>
       <c r="D10">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.9467620431970388</v>
+      </c>
+      <c r="E10">
+        <v>0.8179890861274984</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>23.64968144987701</v>
+        <v>-0.5108850589920311</v>
       </c>
       <c r="D11">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.09658431130331625</v>
+      </c>
+      <c r="E11">
+        <v>0.8179890861274984</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>27.69538242979841</v>
+        <v>1.646734682279025</v>
       </c>
       <c r="D12">
-        <v>28.07692307692308</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.6995425863170514</v>
+      </c>
+      <c r="E12">
+        <v>0.7576365206796469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>23.52303833234257</v>
+        <v>-0.4981037450876341</v>
       </c>
       <c r="D13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.11612859211561</v>
+      </c>
+      <c r="E13">
+        <v>-1.535760966338715</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>23.15506155929911</v>
+        <v>0.3917164583669297</v>
       </c>
       <c r="D14">
-        <v>19.83333333333333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.05671139834686652</v>
+      </c>
+      <c r="E14">
+        <v>-0.4183240727436439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15">
-        <v>17.45817788854002</v>
+        <v>-0.5833795837556853</v>
       </c>
       <c r="D15">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.7740354047729098</v>
+      </c>
+      <c r="E15">
+        <v>0.8179890861274984</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16">
-        <v>21.59723888152702</v>
+        <v>1.056987742886034</v>
       </c>
       <c r="D16">
-        <v>29.04347826086957</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.2234740570324177</v>
+      </c>
+      <c r="E16">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17">
-        <v>24.89565189941259</v>
+        <v>-2.302811924182355</v>
       </c>
       <c r="D17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.3043959115361398</v>
+      </c>
+      <c r="E17">
+        <v>-0.9651548930135722</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>20.27216414164677</v>
+        <v>-0.640274927747787</v>
       </c>
       <c r="D18">
-        <v>29.04347826086957</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.3516868493782328</v>
+      </c>
+      <c r="E18">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19">
-        <v>26.67939886029598</v>
+        <v>-0.6729105744448776</v>
       </c>
       <c r="D19">
-        <v>28.07692307692308</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.5596720618724162</v>
+      </c>
+      <c r="E19">
+        <v>0.7576365206796469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20">
-        <v>28.14400191991612</v>
+        <v>0.8383433215461333</v>
       </c>
       <c r="D20">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.7700569845923279</v>
+      </c>
+      <c r="E20">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21">
-        <v>26.90700853680691</v>
+        <v>0.05239241805775575</v>
       </c>
       <c r="D21">
-        <v>29.04347826086957</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.5140906584349402</v>
+      </c>
+      <c r="E21">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22">
-        <v>22.17372582238544</v>
+        <v>0.6891521989867773</v>
       </c>
       <c r="D22">
-        <v>17.92857142857143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1063715919858134</v>
+      </c>
+      <c r="E22">
+        <v>-0.6900412505175212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23">
-        <v>23.17782248748172</v>
+        <v>-0.283049349954533</v>
       </c>
       <c r="D23">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.06285952105526867</v>
+      </c>
+      <c r="E23">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24">
-        <v>20.33074458606705</v>
+        <v>-2.032184597405229</v>
       </c>
       <c r="D24">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.3423199823769646</v>
+      </c>
+      <c r="E24">
+        <v>0.8179890861274984</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25">
-        <v>20.16630854616452</v>
+        <v>-0.6291986919676172</v>
       </c>
       <c r="D25">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.3723557552400116</v>
+      </c>
+      <c r="E25">
+        <v>0.8179890861274984</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26">
-        <v>22.00612800567843</v>
+        <v>-0.1171037976783063</v>
       </c>
       <c r="D26">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.109662655946358</v>
+      </c>
+      <c r="E26">
+        <v>-1.535760966338715</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27">
-        <v>21.81944268553919</v>
+        <v>-0.4907380617287191</v>
       </c>
       <c r="D27">
-        <v>29.04347826086957</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>-0.1763878022672881</v>
+      </c>
+      <c r="E27">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28">
-        <v>22.71912547715657</v>
+        <v>0.3023582231328008</v>
       </c>
       <c r="D28">
-        <v>15.66666666666667</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.1208337676037487</v>
+      </c>
+      <c r="E28">
+        <v>-1.012705399124001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C29">
-        <v>21.22166540344488</v>
+        <v>-1.48951753017439</v>
       </c>
       <c r="D29">
-        <v>18.66666666666667</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.2171468167121621</v>
+      </c>
+      <c r="E29">
+        <v>-0.5847508441301439</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30">
-        <v>24.28567821980051</v>
+        <v>-0.4521292551942045</v>
       </c>
       <c r="D30">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.2155902654168984</v>
+      </c>
+      <c r="E30">
+        <v>0.8179890861274984</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C31">
-        <v>20.93605633047282</v>
+        <v>-0.4930180295406101</v>
       </c>
       <c r="D31">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.2632647065831496</v>
+      </c>
+      <c r="E31">
+        <v>-1.036480652179215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32">
-        <v>24.91943519627038</v>
+        <v>0.9934402667747847</v>
       </c>
       <c r="D32">
-        <v>29.04347826086957</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.3129238738938537</v>
+      </c>
+      <c r="E32">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
-        <v>26.54725437686801</v>
+        <v>1.105090267241812</v>
       </c>
       <c r="D33">
-        <v>28.07692307692308</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.5323685985242252</v>
+      </c>
+      <c r="E33">
+        <v>0.7576365206796469</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34">
-        <v>18.76168786577327</v>
+        <v>0.06260201558072077</v>
       </c>
       <c r="D34">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.5719482886548343</v>
+      </c>
+      <c r="E34">
+        <v>-1.036480652179215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35">
-        <v>30.26770482213213</v>
+        <v>-0.4037203156615095</v>
       </c>
       <c r="D35">
-        <v>29.04347826086957</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>1.04685465334133</v>
+      </c>
+      <c r="E35">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36">
-        <v>23.33103277669021</v>
+        <v>-0.6541257442078602</v>
       </c>
       <c r="D36">
-        <v>13.33333333333333</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.1098165545214547</v>
+      </c>
+      <c r="E36">
+        <v>-1.345558941897001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37">
-        <v>23.47152994855562</v>
+        <v>1.363401060086582</v>
       </c>
       <c r="D37">
-        <v>18.66666666666667</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.1040512932887178</v>
+      </c>
+      <c r="E37">
+        <v>-0.5847508441301439</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38">
-        <v>19.14112216383453</v>
+        <v>-0.6812736446603203</v>
       </c>
       <c r="D38">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.5165281720753382</v>
+      </c>
+      <c r="E38">
+        <v>-1.535760966338715</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39">
-        <v>27.8158010392582</v>
+        <v>0.9242905841081095</v>
       </c>
       <c r="D39">
-        <v>29.04347826086957</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.749089633773432</v>
+      </c>
+      <c r="E39">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40">
-        <v>22.63133848169139</v>
+        <v>0.127661215180068</v>
       </c>
       <c r="D40">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01535294433524113</v>
+      </c>
+      <c r="E40">
+        <v>-1.107806411344858</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41">
-        <v>22.32478510188977</v>
+        <v>-0.2850616282403882</v>
       </c>
       <c r="D41">
-        <v>13.33333333333333</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.06850654681679046</v>
+      </c>
+      <c r="E41">
+        <v>-1.345558941897001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42">
-        <v>26.70764894244254</v>
+        <v>0.7229621783361739</v>
       </c>
       <c r="D42">
-        <v>29.04347826086957</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.5279829725868403</v>
+      </c>
+      <c r="E42">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43">
-        <v>20.2078700007798</v>
+        <v>-0.7659257964754655</v>
       </c>
       <c r="D43">
-        <v>13.33333333333333</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.3681184338223734</v>
+      </c>
+      <c r="E43">
+        <v>-1.345558941897001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44">
-        <v>23.20109082184515</v>
+        <v>1.188759121857292</v>
       </c>
       <c r="D44">
-        <v>29.04347826086957</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.05503819479261009</v>
+      </c>
+      <c r="E44">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45">
-        <v>17.98704996886866</v>
+        <v>-1.716520131617953</v>
       </c>
       <c r="D45">
-        <v>28.07692307692308</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-0.6854172577326447</v>
+      </c>
+      <c r="E45">
+        <v>0.7576365206796469</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46">
-        <v>28.86884201353368</v>
+        <v>1.350668904413715</v>
       </c>
       <c r="D46">
-        <v>28.07692307692308</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.8632363143437066</v>
+      </c>
+      <c r="E46">
+        <v>0.7576365206796469</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47">
-        <v>25.00518710698476</v>
+        <v>-2.347192509037311</v>
       </c>
       <c r="D47">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.3208356401280721</v>
+      </c>
+      <c r="E47">
+        <v>-1.036480652179215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48">
-        <v>17.83650828097799</v>
+        <v>-1.205643282702186</v>
       </c>
       <c r="D48">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.7016079506247715</v>
+      </c>
+      <c r="E48">
+        <v>-1.892389762166929</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49">
-        <v>22.32488308634601</v>
+        <v>-0.5410008058235958</v>
       </c>
       <c r="D49">
-        <v>13.33333333333333</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.0666398862607379</v>
+      </c>
+      <c r="E49">
+        <v>-2.819624631320286</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50">
-        <v>23.3567926399222</v>
+        <v>-0.06896747478839287</v>
       </c>
       <c r="D50">
-        <v>17.92857142857143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.06868136115907424</v>
+      </c>
+      <c r="E50">
+        <v>-0.6900412505175212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51">
-        <v>27.63398040731488</v>
+        <v>0.9686553637206032</v>
       </c>
       <c r="D51">
-        <v>28.07692307692308</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.6882172498969085</v>
+      </c>
+      <c r="E51">
+        <v>0.7576365206796469</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C52">
-        <v>21.35171359286419</v>
+        <v>0.2954030636671585</v>
       </c>
       <c r="D52">
-        <v>29.04347826086957</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.3860518762901284</v>
+      </c>
+      <c r="E52">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53">
-        <v>23.3699703818066</v>
+        <v>0.5601538162696293</v>
       </c>
       <c r="D53">
-        <v>28.07692307692308</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.09481690752344692</v>
+      </c>
+      <c r="E53">
+        <v>0.7576365206796469</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C54">
-        <v>17.97317083443441</v>
+        <v>1.268376835691033</v>
       </c>
       <c r="D54">
-        <v>25.66666666666666</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.6935971658991177</v>
+      </c>
+      <c r="E54">
+        <v>0.4138097841888559</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C55">
-        <v>25.97156313908945</v>
+        <v>-0.3794102483713935</v>
       </c>
       <c r="D55">
-        <v>28.07692307692308</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.456048971093672</v>
+      </c>
+      <c r="E55">
+        <v>0.7576365206796469</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C56">
-        <v>26.18127353281072</v>
+        <v>0.4895295147904302</v>
       </c>
       <c r="D56">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.4945566615691662</v>
+      </c>
+      <c r="E56">
+        <v>0.8179890861274984</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C57">
-        <v>18.01125866332826</v>
+        <v>-1.561031468759701</v>
       </c>
       <c r="D57">
-        <v>21.75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.7148201339727136</v>
+      </c>
+      <c r="E57">
+        <v>-0.1449086626086797</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C58">
-        <v>19.96188845592789</v>
+        <v>-0.6915223519004736</v>
       </c>
       <c r="D58">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.396931210696676</v>
+      </c>
+      <c r="E58">
+        <v>-0.1092457830258583</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59">
-        <v>27.27876787602097</v>
+        <v>0.4118599871590811</v>
       </c>
       <c r="D59">
-        <v>28.07692307692308</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.6413112221950196</v>
+      </c>
+      <c r="E59">
+        <v>0.7576365206796469</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60">
-        <v>25.20700251870106</v>
+        <v>0.3475543366462095</v>
       </c>
       <c r="D60">
-        <v>19.83333333333333</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.3492886875416847</v>
+      </c>
+      <c r="E60">
+        <v>-0.4183240727436439</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61">
-        <v>25.44829974267098</v>
+        <v>-0.2874621000765896</v>
       </c>
       <c r="D61">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.3890387774244425</v>
+      </c>
+      <c r="E61">
+        <v>0.8179890861274984</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C62">
-        <v>24.18473396377823</v>
+        <v>1.512626722551331</v>
       </c>
       <c r="D62">
-        <v>28.07692307692308</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.1994373210978575</v>
+      </c>
+      <c r="E62">
+        <v>0.7576365206796469</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C63">
-        <v>28.18997824905189</v>
+        <v>1.706766218043248</v>
       </c>
       <c r="D63">
-        <v>29.04347826086957</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.7858312240710618</v>
+      </c>
+      <c r="E63">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C64">
-        <v>25.36255144176898</v>
+        <v>0.1949981032146253</v>
       </c>
       <c r="D64">
-        <v>2.999999999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.2978743032087288</v>
+      </c>
+      <c r="E64">
+        <v>-2.819624631320286</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C65">
-        <v>24.71198122978249</v>
+        <v>0.3889753229383358</v>
       </c>
       <c r="D65">
-        <v>29.04347826086957</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.2196319398097709</v>
+      </c>
+      <c r="E65">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C66">
-        <v>25.69606170293169</v>
+        <v>0.05449814639992109</v>
       </c>
       <c r="D66">
-        <v>29.04347826086957</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.4167640927351005</v>
+      </c>
+      <c r="E66">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C67">
-        <v>21.90293095581059</v>
+        <v>0.1211393158998829</v>
       </c>
       <c r="D67">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.1246694510125395</v>
+      </c>
+      <c r="E67">
+        <v>0.8179890861274984</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C68">
-        <v>23.93770905552669</v>
+        <v>-0.4970204540332109</v>
       </c>
       <c r="D68">
-        <v>29.04347826086957</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.1665342033880273</v>
+      </c>
+      <c r="E68">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C69">
-        <v>23.78943991301731</v>
+        <v>0.594074380132057</v>
       </c>
       <c r="D69">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.1484229798601338</v>
+      </c>
+      <c r="E69">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C70">
-        <v>25.44227129743289</v>
+        <v>0.5550608641777632</v>
       </c>
       <c r="D70">
-        <v>17.92857142857143</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.3318855521214473</v>
+      </c>
+      <c r="E70">
+        <v>-0.6900412505175212</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C71">
-        <v>16.83439216404805</v>
+        <v>-1.050600889409832</v>
       </c>
       <c r="D71">
-        <v>17.92857142857143</v>
+        <v>-0.8431523611615274</v>
+      </c>
+      <c r="E71">
+        <v>-0.6900412505175212</v>
       </c>
     </row>
   </sheetData>

--- a/adresso_1024_regression_True.xlsx
+++ b/adresso_1024_regression_True.xlsx
@@ -621,13 +621,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.3375046779533498</v>
+        <v>25.13176099494224</v>
       </c>
       <c r="D2">
-        <v>0.5514060201263612</v>
+        <v>26.63122868147789</v>
       </c>
       <c r="E2">
-        <v>0.4138097841888559</v>
+        <v>25.66666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -638,13 +638,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>1.26099038697342</v>
+        <v>31.60547904451407</v>
       </c>
       <c r="D3">
-        <v>0.1347318597081056</v>
+        <v>23.71030526410076</v>
       </c>
       <c r="E3">
-        <v>-0.6900412505175212</v>
+        <v>17.92857142857143</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -655,13 +655,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>0.8426184863497229</v>
+        <v>28.6726543152876</v>
       </c>
       <c r="D4">
-        <v>0.1029985127179069</v>
+        <v>23.48785164172499</v>
       </c>
       <c r="E4">
-        <v>0.7576365206796469</v>
+        <v>28.07692307692308</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -672,13 +672,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>0.1986180085350449</v>
+        <v>24.15815292513002</v>
       </c>
       <c r="D5">
-        <v>-1.017152359647523</v>
+        <v>15.63549307261354</v>
       </c>
       <c r="E5">
-        <v>-0.6900412505175212</v>
+        <v>17.92857142857143</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -689,13 +689,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>-0.364880196143665</v>
+        <v>20.20797972493965</v>
       </c>
       <c r="D6">
-        <v>0.1014690523761019</v>
+        <v>23.477129986886</v>
       </c>
       <c r="E6">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -706,13 +706,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>0.2256423090406473</v>
+        <v>24.34759570724498</v>
       </c>
       <c r="D7">
-        <v>0.2931980140840995</v>
+        <v>24.82116728807152</v>
       </c>
       <c r="E7">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -723,13 +723,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>0.04907052386542095</v>
+        <v>23.10981157959787</v>
       </c>
       <c r="D8">
-        <v>0.0169114350582862</v>
+        <v>22.88437346871531</v>
       </c>
       <c r="E8">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -740,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>-0.5015197250690897</v>
+        <v>19.25012431250653</v>
       </c>
       <c r="D9">
-        <v>-0.3066243240012231</v>
+        <v>20.61635863898073</v>
       </c>
       <c r="E9">
-        <v>0.4138097841888559</v>
+        <v>25.66666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -757,13 +757,13 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>-0.3622810165757339</v>
+        <v>20.22620020796245</v>
       </c>
       <c r="D10">
-        <v>-0.9467620431970388</v>
+        <v>16.12893553487331</v>
       </c>
       <c r="E10">
-        <v>0.8179890861274984</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -774,13 +774,13 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>-0.5108850589920311</v>
+        <v>19.18447247765405</v>
       </c>
       <c r="D11">
-        <v>0.09658431130331625</v>
+        <v>23.44288751172747</v>
       </c>
       <c r="E11">
-        <v>0.8179890861274984</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -791,13 +791,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>1.646734682279025</v>
+        <v>34.309581319891</v>
       </c>
       <c r="D12">
-        <v>0.6995425863170514</v>
+        <v>27.6696793613134</v>
       </c>
       <c r="E12">
-        <v>0.7576365206796469</v>
+        <v>28.07692307692308</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -808,13 +808,13 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>-0.4981037450876341</v>
+        <v>19.27407064004244</v>
       </c>
       <c r="D13">
-        <v>0.11612859211561</v>
+        <v>23.57989468165401</v>
       </c>
       <c r="E13">
-        <v>-1.535760966338715</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -825,13 +825,13 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>0.3917164583669297</v>
+        <v>25.51179046148939</v>
       </c>
       <c r="D14">
-        <v>0.05671139834686652</v>
+        <v>23.1633747983482</v>
       </c>
       <c r="E14">
-        <v>-0.4183240727436439</v>
+        <v>19.83333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -842,13 +842,13 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>-0.5833795837556853</v>
+        <v>18.67627932547675</v>
       </c>
       <c r="D15">
-        <v>-0.7740354047729098</v>
+        <v>17.33976483725058</v>
       </c>
       <c r="E15">
-        <v>0.8179890861274984</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -859,13 +859,13 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>1.056987742886034</v>
+        <v>30.17540212368086</v>
       </c>
       <c r="D16">
-        <v>-0.2234740570324177</v>
+        <v>21.19924950436712</v>
       </c>
       <c r="E16">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -876,13 +876,13 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>-2.302811924182355</v>
+        <v>6.622903654889354</v>
       </c>
       <c r="D17">
-        <v>0.3043959115361398</v>
+        <v>24.89966555842315</v>
       </c>
       <c r="E17">
-        <v>-0.9651548930135722</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -893,13 +893,13 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>-0.640274927747787</v>
+        <v>18.27743783638743</v>
       </c>
       <c r="D18">
-        <v>-0.3516868493782328</v>
+        <v>20.30046627481844</v>
       </c>
       <c r="E18">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -910,13 +910,13 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>-0.6729105744448776</v>
+        <v>18.0486590117464</v>
       </c>
       <c r="D19">
-        <v>0.5596720618724162</v>
+        <v>26.68917437909646</v>
       </c>
       <c r="E19">
-        <v>0.7576365206796469</v>
+        <v>28.07692307692308</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -927,13 +927,13 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>0.8383433215461333</v>
+        <v>28.64268502471432</v>
       </c>
       <c r="D20">
-        <v>0.7700569845923279</v>
+        <v>28.16399164834786</v>
       </c>
       <c r="E20">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -944,13 +944,13 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>0.05239241805775575</v>
+        <v>23.13309835727254</v>
       </c>
       <c r="D21">
-        <v>0.5140906584349402</v>
+        <v>26.36964463296632</v>
       </c>
       <c r="E21">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -961,13 +961,13 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>0.6891521989867773</v>
+        <v>27.59684180969236</v>
       </c>
       <c r="D22">
-        <v>-0.1063715919858134</v>
+        <v>22.02014833822778</v>
       </c>
       <c r="E22">
-        <v>-0.6900412505175212</v>
+        <v>17.92857142857143</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -978,13 +978,13 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>-0.283049349954533</v>
+        <v>20.78162133174746</v>
       </c>
       <c r="D23">
-        <v>0.06285952105526867</v>
+        <v>23.20647369263494</v>
       </c>
       <c r="E23">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -995,13 +995,13 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>-2.032184597405229</v>
+        <v>8.520025605940983</v>
       </c>
       <c r="D24">
-        <v>-0.3423199823769646</v>
+        <v>20.36612885668817</v>
       </c>
       <c r="E24">
-        <v>0.8179890861274984</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1012,13 +1012,13 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>-0.6291986919676172</v>
+        <v>18.35508324745447</v>
       </c>
       <c r="D25">
-        <v>-0.3723557552400116</v>
+        <v>20.15557538193795</v>
       </c>
       <c r="E25">
-        <v>0.8179890861274984</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1029,13 +1029,13 @@
         <v>28</v>
       </c>
       <c r="C26">
-        <v>-0.1171037976783063</v>
+        <v>21.94491460908114</v>
       </c>
       <c r="D26">
-        <v>-0.109662655946358</v>
+        <v>21.99707768325654</v>
       </c>
       <c r="E26">
-        <v>-1.535760966338715</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1046,13 +1046,13 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>-0.4907380617287191</v>
+        <v>19.32570474422217</v>
       </c>
       <c r="D27">
-        <v>-0.1763878022672881</v>
+        <v>21.52932839392916</v>
       </c>
       <c r="E27">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1063,13 +1063,13 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>0.3023582231328008</v>
+        <v>24.88538117906866</v>
       </c>
       <c r="D28">
-        <v>-0.1208337676037487</v>
+        <v>21.91876718373947</v>
       </c>
       <c r="E28">
-        <v>-1.012705399124001</v>
+        <v>15.66666666666667</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1080,13 +1080,13 @@
         <v>31</v>
       </c>
       <c r="C29">
-        <v>-1.48951753017439</v>
+        <v>12.3241706552112</v>
       </c>
       <c r="D29">
-        <v>-0.2171468167121621</v>
+        <v>21.24360402925596</v>
       </c>
       <c r="E29">
-        <v>-0.5847508441301439</v>
+        <v>18.66666666666667</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1097,13 +1097,13 @@
         <v>32</v>
       </c>
       <c r="C30">
-        <v>-0.4521292551942045</v>
+        <v>19.59635595765582</v>
       </c>
       <c r="D30">
-        <v>0.2155902654168984</v>
+        <v>24.27712997549999</v>
       </c>
       <c r="E30">
-        <v>0.8179890861274984</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1114,13 +1114,13 @@
         <v>33</v>
       </c>
       <c r="C31">
-        <v>-0.4930180295406101</v>
+        <v>19.30972196437824</v>
       </c>
       <c r="D31">
-        <v>-0.2632647065831496</v>
+        <v>20.92031346487594</v>
       </c>
       <c r="E31">
-        <v>-1.036480652179215</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1131,13 +1131,13 @@
         <v>34</v>
       </c>
       <c r="C32">
-        <v>0.9934402667747847</v>
+        <v>29.72992858891153</v>
       </c>
       <c r="D32">
-        <v>0.3129238738938537</v>
+        <v>24.9594473431351</v>
       </c>
       <c r="E32">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1148,13 +1148,13 @@
         <v>35</v>
       </c>
       <c r="C33">
-        <v>1.105090267241812</v>
+        <v>30.51260515466485</v>
       </c>
       <c r="D33">
-        <v>0.5323685985242252</v>
+        <v>26.49777464029535</v>
       </c>
       <c r="E33">
-        <v>0.7576365206796469</v>
+        <v>28.07692307692308</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1165,13 +1165,13 @@
         <v>36</v>
       </c>
       <c r="C34">
-        <v>0.06260201558072077</v>
+        <v>23.20466855605062</v>
       </c>
       <c r="D34">
-        <v>-0.5719482886548343</v>
+        <v>18.75641373438155</v>
       </c>
       <c r="E34">
-        <v>-1.036480652179215</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1182,13 +1182,13 @@
         <v>37</v>
       </c>
       <c r="C35">
-        <v>-0.4037203156615095</v>
+        <v>19.93570698664573</v>
       </c>
       <c r="D35">
-        <v>1.04685465334133</v>
+        <v>30.10436825272569</v>
       </c>
       <c r="E35">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1199,13 +1199,13 @@
         <v>38</v>
       </c>
       <c r="C36">
-        <v>-0.6541257442078602</v>
+        <v>18.18034236469461</v>
       </c>
       <c r="D36">
-        <v>0.1098165545214547</v>
+        <v>23.53564672924529</v>
       </c>
       <c r="E36">
-        <v>-1.345558941897001</v>
+        <v>13.33333333333333</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1216,13 +1216,13 @@
         <v>39</v>
       </c>
       <c r="C37">
-        <v>1.363401060086582</v>
+        <v>32.32338709282049</v>
       </c>
       <c r="D37">
-        <v>0.1040512932887178</v>
+        <v>23.49523172840843</v>
       </c>
       <c r="E37">
-        <v>-0.5847508441301439</v>
+        <v>18.66666666666667</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1233,13 +1233,13 @@
         <v>40</v>
       </c>
       <c r="C38">
-        <v>-0.6812736446603203</v>
+        <v>17.99003313581271</v>
       </c>
       <c r="D38">
-        <v>-0.5165281720753382</v>
+        <v>19.14491374635333</v>
       </c>
       <c r="E38">
-        <v>-1.535760966338715</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1250,13 +1250,13 @@
         <v>41</v>
       </c>
       <c r="C39">
-        <v>0.9242905841081095</v>
+        <v>29.24518308128864</v>
       </c>
       <c r="D39">
-        <v>0.749089633773432</v>
+        <v>28.01700862942055</v>
       </c>
       <c r="E39">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1267,13 +1267,13 @@
         <v>42</v>
       </c>
       <c r="C40">
-        <v>0.127661215180068</v>
+        <v>23.66073940871591</v>
       </c>
       <c r="D40">
-        <v>-0.01535294433524113</v>
+        <v>22.65819726133279</v>
       </c>
       <c r="E40">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1284,13 +1284,13 @@
         <v>43</v>
       </c>
       <c r="C41">
-        <v>-0.2850616282403882</v>
+        <v>20.76751507960662</v>
       </c>
       <c r="D41">
-        <v>-0.06850654681679046</v>
+        <v>22.28558571745768</v>
       </c>
       <c r="E41">
-        <v>-1.345558941897001</v>
+        <v>13.33333333333333</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1301,13 +1301,13 @@
         <v>44</v>
       </c>
       <c r="C42">
-        <v>0.7229621783361739</v>
+        <v>27.83385281206303</v>
       </c>
       <c r="D42">
-        <v>0.5279829725868403</v>
+        <v>26.46703100721883</v>
       </c>
       <c r="E42">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1318,13 +1318,13 @@
         <v>45</v>
       </c>
       <c r="C43">
-        <v>-0.7659257964754655</v>
+        <v>17.39661392229579</v>
       </c>
       <c r="D43">
-        <v>-0.3681184338223734</v>
+        <v>20.18527938696506</v>
       </c>
       <c r="E43">
-        <v>-1.345558941897001</v>
+        <v>13.33333333333333</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1335,13 +1335,13 @@
         <v>46</v>
       </c>
       <c r="C44">
-        <v>1.188759121857292</v>
+        <v>31.09913136619225</v>
       </c>
       <c r="D44">
-        <v>0.05503819479261009</v>
+        <v>23.15164549063505</v>
       </c>
       <c r="E44">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1352,13 +1352,13 @@
         <v>47</v>
       </c>
       <c r="C45">
-        <v>-1.716520131617953</v>
+        <v>10.73286196043527</v>
       </c>
       <c r="D45">
-        <v>-0.6854172577326447</v>
+        <v>17.96098603473172</v>
       </c>
       <c r="E45">
-        <v>0.7576365206796469</v>
+        <v>28.07692307692308</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1369,13 +1369,13 @@
         <v>48</v>
       </c>
       <c r="C46">
-        <v>1.350668904413715</v>
+        <v>32.23413353406553</v>
       </c>
       <c r="D46">
-        <v>0.8632363143437066</v>
+        <v>28.81718714771145</v>
       </c>
       <c r="E46">
-        <v>0.7576365206796469</v>
+        <v>28.07692307692308</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1386,13 +1386,13 @@
         <v>49</v>
       </c>
       <c r="C47">
-        <v>-2.347192509037311</v>
+        <v>6.311791755246697</v>
       </c>
       <c r="D47">
-        <v>0.3208356401280721</v>
+        <v>25.01490953748655</v>
       </c>
       <c r="E47">
-        <v>-1.036480652179215</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1403,13 +1403,13 @@
         <v>50</v>
       </c>
       <c r="C48">
-        <v>-1.205643282702186</v>
+        <v>14.3141547142168</v>
       </c>
       <c r="D48">
-        <v>-0.7016079506247715</v>
+        <v>17.84748781836836</v>
       </c>
       <c r="E48">
-        <v>-1.892389762166929</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1420,13 +1420,13 @@
         <v>51</v>
       </c>
       <c r="C49">
-        <v>-0.5410008058235958</v>
+        <v>18.97335837817685</v>
       </c>
       <c r="D49">
-        <v>-0.0666398862607379</v>
+        <v>22.29867117618878</v>
       </c>
       <c r="E49">
-        <v>-2.819624631320286</v>
+        <v>13.33333333333333</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1437,13 +1437,13 @@
         <v>52</v>
       </c>
       <c r="C50">
-        <v>-0.06896747478839287</v>
+        <v>22.28235457083552</v>
       </c>
       <c r="D50">
-        <v>0.06868136115907424</v>
+        <v>23.24728531645717</v>
       </c>
       <c r="E50">
-        <v>-0.6900412505175212</v>
+        <v>17.92857142857143</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1454,13 +1454,13 @@
         <v>53</v>
       </c>
       <c r="C51">
-        <v>0.9686553637206032</v>
+        <v>29.55618418475719</v>
       </c>
       <c r="D51">
-        <v>0.6882172498969085</v>
+        <v>27.5902877323099</v>
       </c>
       <c r="E51">
-        <v>0.7576365206796469</v>
+        <v>28.07692307692308</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1471,13 +1471,13 @@
         <v>54</v>
       </c>
       <c r="C52">
-        <v>0.2954030636671585</v>
+        <v>24.83662488437932</v>
       </c>
       <c r="D52">
-        <v>-0.3860518762901284</v>
+        <v>20.05956433901088</v>
       </c>
       <c r="E52">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1488,13 +1488,13 @@
         <v>55</v>
       </c>
       <c r="C53">
-        <v>0.5601538162696293</v>
+        <v>26.69255152083914</v>
       </c>
       <c r="D53">
-        <v>0.09481690752344692</v>
+        <v>23.43049785194296</v>
       </c>
       <c r="E53">
-        <v>0.7576365206796469</v>
+        <v>28.07692307692308</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1505,13 +1505,13 @@
         <v>56</v>
       </c>
       <c r="C54">
-        <v>1.268376835691033</v>
+        <v>31.65725871572975</v>
       </c>
       <c r="D54">
-        <v>-0.6935971658991177</v>
+        <v>17.90364414126882</v>
       </c>
       <c r="E54">
-        <v>0.4138097841888559</v>
+        <v>25.66666666666667</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1522,13 +1522,13 @@
         <v>57</v>
       </c>
       <c r="C55">
-        <v>-0.3794102483713935</v>
+        <v>20.1061227492993</v>
       </c>
       <c r="D55">
-        <v>0.456048971093672</v>
+        <v>25.96276717368491</v>
       </c>
       <c r="E55">
-        <v>0.7576365206796469</v>
+        <v>28.07692307692308</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1539,13 +1539,13 @@
         <v>58</v>
       </c>
       <c r="C56">
-        <v>0.4895295147904302</v>
+        <v>26.19746880244013</v>
       </c>
       <c r="D56">
-        <v>0.4945566615691662</v>
+        <v>26.23270955443172</v>
       </c>
       <c r="E56">
-        <v>0.8179890861274984</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1556,13 +1556,13 @@
         <v>59</v>
       </c>
       <c r="C57">
-        <v>-1.561031468759701</v>
+        <v>11.82285150051961</v>
       </c>
       <c r="D57">
-        <v>-0.7148201339727136</v>
+        <v>17.75486922234852</v>
       </c>
       <c r="E57">
-        <v>-0.1449086626086797</v>
+        <v>21.75</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1573,13 +1573,13 @@
         <v>60</v>
       </c>
       <c r="C58">
-        <v>-0.6915223519004736</v>
+        <v>17.91818877439236</v>
       </c>
       <c r="D58">
-        <v>-0.396931210696676</v>
+        <v>19.98329922431871</v>
       </c>
       <c r="E58">
-        <v>-0.1092457830258583</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1590,13 +1590,13 @@
         <v>61</v>
       </c>
       <c r="C59">
-        <v>0.4118599871590811</v>
+        <v>25.65299841376208</v>
       </c>
       <c r="D59">
-        <v>0.6413112221950196</v>
+        <v>27.26147225070418</v>
       </c>
       <c r="E59">
-        <v>0.7576365206796469</v>
+        <v>28.07692307692308</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1607,13 +1607,13 @@
         <v>62</v>
       </c>
       <c r="C60">
-        <v>0.3475543366462095</v>
+        <v>25.20221000810676</v>
       </c>
       <c r="D60">
-        <v>0.3492886875416847</v>
+        <v>25.21436796419277</v>
       </c>
       <c r="E60">
-        <v>-0.4183240727436439</v>
+        <v>19.83333333333333</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1624,13 +1624,13 @@
         <v>63</v>
       </c>
       <c r="C61">
-        <v>-0.2874621000765896</v>
+        <v>20.75068755569182</v>
       </c>
       <c r="D61">
-        <v>0.3890387774244425</v>
+        <v>25.49301967675601</v>
       </c>
       <c r="E61">
-        <v>0.8179890861274984</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1641,13 +1641,13 @@
         <v>64</v>
       </c>
       <c r="C62">
-        <v>1.512626722551331</v>
+        <v>33.36947243569217</v>
       </c>
       <c r="D62">
-        <v>0.1994373210978575</v>
+        <v>24.16389638003605</v>
       </c>
       <c r="E62">
-        <v>0.7576365206796469</v>
+        <v>28.07692307692308</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1658,13 +1658,13 @@
         <v>65</v>
       </c>
       <c r="C63">
-        <v>1.706766218043248</v>
+        <v>34.73040779595282</v>
       </c>
       <c r="D63">
-        <v>0.7858312240710618</v>
+        <v>28.27457048875039</v>
       </c>
       <c r="E63">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1675,13 +1675,13 @@
         <v>66</v>
       </c>
       <c r="C64">
-        <v>0.1949981032146253</v>
+        <v>24.13277706258916</v>
       </c>
       <c r="D64">
-        <v>0.2978743032087288</v>
+        <v>24.8539484962867</v>
       </c>
       <c r="E64">
-        <v>-2.819624631320286</v>
+        <v>13.33333333333333</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1692,13 +1692,13 @@
         <v>67</v>
       </c>
       <c r="C65">
-        <v>0.3889753229383358</v>
+        <v>25.49257485508955</v>
       </c>
       <c r="D65">
-        <v>0.2196319398097709</v>
+        <v>24.30546247725077</v>
       </c>
       <c r="E65">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1709,13 +1709,13 @@
         <v>68</v>
       </c>
       <c r="C66">
-        <v>0.05449814639992109</v>
+        <v>23.14785970273033</v>
       </c>
       <c r="D66">
-        <v>0.4167640927351005</v>
+        <v>25.68737663583351</v>
       </c>
       <c r="E66">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1726,13 +1726,13 @@
         <v>69</v>
       </c>
       <c r="C67">
-        <v>0.1211393158998829</v>
+        <v>23.61502030697429</v>
       </c>
       <c r="D67">
-        <v>-0.1246694510125395</v>
+        <v>21.89187869735209</v>
       </c>
       <c r="E67">
-        <v>0.8179890861274984</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1743,13 +1743,13 @@
         <v>70</v>
       </c>
       <c r="C68">
-        <v>-0.4970204540332109</v>
+        <v>19.28166460796578</v>
       </c>
       <c r="D68">
-        <v>0.1665342033880273</v>
+        <v>23.93324255948983</v>
       </c>
       <c r="E68">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1760,13 +1760,13 @@
         <v>71</v>
       </c>
       <c r="C69">
-        <v>0.594074380132057</v>
+        <v>26.93033773061262</v>
       </c>
       <c r="D69">
-        <v>0.1484229798601338</v>
+        <v>23.80628125028152</v>
       </c>
       <c r="E69">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1777,13 +1777,13 @@
         <v>72</v>
       </c>
       <c r="C70">
-        <v>0.5550608641777632</v>
+        <v>26.6568494676718</v>
       </c>
       <c r="D70">
-        <v>0.3318855521214473</v>
+        <v>25.09237041643572</v>
       </c>
       <c r="E70">
-        <v>-0.6900412505175212</v>
+        <v>17.92857142857143</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1794,13 +1794,13 @@
         <v>73</v>
       </c>
       <c r="C71">
-        <v>-1.050600889409832</v>
+        <v>15.40101586442407</v>
       </c>
       <c r="D71">
-        <v>-0.8431523611615274</v>
+        <v>16.85524874378633</v>
       </c>
       <c r="E71">
-        <v>-0.6900412505175212</v>
+        <v>17.92857142857143</v>
       </c>
     </row>
   </sheetData>
